--- a/data/negative_signals/Disease - Total occurrences (B-to-X) - Mometasone - all categories.xlsx
+++ b/data/negative_signals/Disease - Total occurrences (B-to-X) - Mometasone - all categories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="435">
   <si>
     <t>pathWeight</t>
   </si>
@@ -108,7 +108,7 @@
     <t>mometasone</t>
   </si>
   <si>
-    <t>105770609</t>
+    <t>39418758</t>
   </si>
   <si>
     <t>is ingredient of</t>
@@ -120,7 +120,7 @@
     <t>dexamethasone</t>
   </si>
   <si>
-    <t>150678958</t>
+    <t>84259035</t>
   </si>
   <si>
     <t>is compared with</t>
@@ -132,7 +132,7 @@
     <t>hydrocortisone</t>
   </si>
   <si>
-    <t>155318365</t>
+    <t>89180166</t>
   </si>
   <si>
     <t>inhibits</t>
@@ -144,28 +144,19 @@
     <t>collagen</t>
   </si>
   <si>
-    <t>197372811</t>
+    <t>131163669</t>
   </si>
   <si>
     <t>interacts with</t>
   </si>
   <si>
-    <t>4041831</t>
-  </si>
-  <si>
-    <t>doxorubicin</t>
-  </si>
-  <si>
-    <t>85056866</t>
-  </si>
-  <si>
     <t>5793192</t>
   </si>
   <si>
     <t>steroids</t>
   </si>
   <si>
-    <t>150468942</t>
+    <t>84020421</t>
   </si>
   <si>
     <t>is a</t>
@@ -177,31 +168,31 @@
     <t>adrenal cortex hormones</t>
   </si>
   <si>
-    <t>203726953</t>
+    <t>137544078</t>
   </si>
   <si>
     <t>is parent of</t>
   </si>
   <si>
-    <t>142559359</t>
+    <t>82916689</t>
+  </si>
+  <si>
+    <t>105818582</t>
+  </si>
+  <si>
+    <t>76171623</t>
   </si>
   <si>
     <t>does not interact with</t>
   </si>
   <si>
-    <t>172017645</t>
-  </si>
-  <si>
-    <t>149317267</t>
-  </si>
-  <si>
-    <t>82750</t>
-  </si>
-  <si>
-    <t>adriamycin</t>
-  </si>
-  <si>
-    <t>85056828</t>
+    <t>5797677</t>
+  </si>
+  <si>
+    <t>interleukin-8</t>
+  </si>
+  <si>
+    <t>80504229</t>
   </si>
   <si>
     <t>4027513</t>
@@ -210,16 +201,7 @@
     <t>interleukin-4</t>
   </si>
   <si>
-    <t>161511911</t>
-  </si>
-  <si>
-    <t>5797677</t>
-  </si>
-  <si>
-    <t>interleukin-8</t>
-  </si>
-  <si>
-    <t>146907416</t>
+    <t>95307575</t>
   </si>
   <si>
     <t>153796</t>
@@ -228,196 +210,7 @@
     <t>pharmacologic substance</t>
   </si>
   <si>
-    <t>105770616</t>
-  </si>
-  <si>
-    <t>701785</t>
-  </si>
-  <si>
-    <t>doxorubicin hydrochloride</t>
-  </si>
-  <si>
-    <t>85056785</t>
-  </si>
-  <si>
-    <t>607701</t>
-  </si>
-  <si>
-    <t>doxorubicin liposome</t>
-  </si>
-  <si>
-    <t>85056849</t>
-  </si>
-  <si>
-    <t>3784304</t>
-  </si>
-  <si>
-    <t>doxil</t>
-  </si>
-  <si>
-    <t>85056820</t>
-  </si>
-  <si>
-    <t>2435796</t>
-  </si>
-  <si>
-    <t>caelyx</t>
-  </si>
-  <si>
-    <t>85056798</t>
-  </si>
-  <si>
-    <t>570696</t>
-  </si>
-  <si>
-    <t>dox-sl</t>
-  </si>
-  <si>
-    <t>85056789</t>
-  </si>
-  <si>
-    <t>767498</t>
-  </si>
-  <si>
-    <t>myocet</t>
-  </si>
-  <si>
-    <t>85056832</t>
-  </si>
-  <si>
-    <t>2433401</t>
-  </si>
-  <si>
-    <t>rubex</t>
-  </si>
-  <si>
-    <t>85056779</t>
-  </si>
-  <si>
-    <t>613449</t>
-  </si>
-  <si>
-    <t>doxo-cell</t>
-  </si>
-  <si>
-    <t>85056814</t>
-  </si>
-  <si>
-    <t>2977824</t>
-  </si>
-  <si>
-    <t>farmiblastina</t>
-  </si>
-  <si>
-    <t>85056800</t>
-  </si>
-  <si>
-    <t>2977641</t>
-  </si>
-  <si>
-    <t>doxolem</t>
-  </si>
-  <si>
-    <t>85056809</t>
-  </si>
-  <si>
-    <t>2824518</t>
-  </si>
-  <si>
-    <t>doxorubicin nc</t>
-  </si>
-  <si>
-    <t>85056794</t>
-  </si>
-  <si>
-    <t>150803</t>
-  </si>
-  <si>
-    <t>adrimedac</t>
-  </si>
-  <si>
-    <t>85056817</t>
-  </si>
-  <si>
-    <t>730586</t>
-  </si>
-  <si>
-    <t>onkodox</t>
-  </si>
-  <si>
-    <t>85056776</t>
-  </si>
-  <si>
-    <t>5214</t>
-  </si>
-  <si>
-    <t>adriblastin</t>
-  </si>
-  <si>
-    <t>85056853</t>
-  </si>
-  <si>
-    <t>44295</t>
-  </si>
-  <si>
-    <t>doxorubicine baxter</t>
-  </si>
-  <si>
-    <t>85056859</t>
-  </si>
-  <si>
-    <t>353021</t>
-  </si>
-  <si>
-    <t>doxotec</t>
-  </si>
-  <si>
-    <t>85056846</t>
-  </si>
-  <si>
-    <t>2824916</t>
-  </si>
-  <si>
-    <t>doxorubicina funk</t>
-  </si>
-  <si>
-    <t>85056844</t>
-  </si>
-  <si>
-    <t>2824749</t>
-  </si>
-  <si>
-    <t>ribodoxo</t>
-  </si>
-  <si>
-    <t>85056824</t>
-  </si>
-  <si>
-    <t>2824624</t>
-  </si>
-  <si>
-    <t>doxorubicin hexal</t>
-  </si>
-  <si>
-    <t>85056812</t>
-  </si>
-  <si>
-    <t>2824562</t>
-  </si>
-  <si>
-    <t>doxorubicina ferrer farm</t>
-  </si>
-  <si>
-    <t>85056838</t>
-  </si>
-  <si>
-    <t>2824305</t>
-  </si>
-  <si>
-    <t>doxorubicina tedec</t>
-  </si>
-  <si>
-    <t>85056802</t>
+    <t>39418765</t>
   </si>
   <si>
     <t>4048707</t>
@@ -426,7 +219,7 @@
     <t>growth inhibitors</t>
   </si>
   <si>
-    <t>178581442</t>
+    <t>112356139</t>
   </si>
   <si>
     <t>5797446</t>
@@ -435,16 +228,7 @@
     <t>serum proteins</t>
   </si>
   <si>
-    <t>179795530</t>
-  </si>
-  <si>
-    <t>649717</t>
-  </si>
-  <si>
-    <t>daunorubicin</t>
-  </si>
-  <si>
-    <t>88212446</t>
+    <t>113571054</t>
   </si>
   <si>
     <t>255404</t>
@@ -453,16 +237,16 @@
     <t>anti-inflammatory agents</t>
   </si>
   <si>
-    <t>105770610</t>
-  </si>
-  <si>
-    <t>3371055</t>
-  </si>
-  <si>
-    <t>mitoxantrone</t>
-  </si>
-  <si>
-    <t>87466783</t>
+    <t>39418759</t>
+  </si>
+  <si>
+    <t>4048125</t>
+  </si>
+  <si>
+    <t>interleukin-5</t>
+  </si>
+  <si>
+    <t>95307563</t>
   </si>
   <si>
     <t>5189012</t>
@@ -471,28 +255,19 @@
     <t>chlorpheniramine</t>
   </si>
   <si>
-    <t>180583858</t>
+    <t>114378055</t>
   </si>
   <si>
     <t>uses</t>
   </si>
   <si>
-    <t>4048125</t>
-  </si>
-  <si>
-    <t>interleukin-5</t>
-  </si>
-  <si>
-    <t>161511893</t>
-  </si>
-  <si>
     <t>4863610</t>
   </si>
   <si>
     <t>beclomethasone dipropionate</t>
   </si>
   <si>
-    <t>172507308</t>
+    <t>106315969</t>
   </si>
   <si>
     <t>752437</t>
@@ -501,7 +276,7 @@
     <t>budesonide</t>
   </si>
   <si>
-    <t>181492634</t>
+    <t>115363576</t>
   </si>
   <si>
     <t>3815678</t>
@@ -510,7 +285,7 @@
     <t>triamcinolone</t>
   </si>
   <si>
-    <t>146529069</t>
+    <t>80149346</t>
   </si>
   <si>
     <t>2860981</t>
@@ -519,145 +294,28 @@
     <t>chemokine (c-x-c motif) ligand 1</t>
   </si>
   <si>
-    <t>140568017</t>
+    <t>74163552</t>
   </si>
   <si>
     <t>does not inhibit</t>
   </si>
   <si>
-    <t>83738</t>
-  </si>
-  <si>
-    <t>daunoblastin</t>
-  </si>
-  <si>
-    <t>88212443</t>
-  </si>
-  <si>
-    <t>435525</t>
-  </si>
-  <si>
-    <t>cerubidine</t>
-  </si>
-  <si>
-    <t>88212442</t>
-  </si>
-  <si>
-    <t>2440248</t>
-  </si>
-  <si>
-    <t>nsc-82151</t>
-  </si>
-  <si>
-    <t>88212444</t>
-  </si>
-  <si>
-    <t>554121</t>
-  </si>
-  <si>
-    <t>novantrone</t>
-  </si>
-  <si>
-    <t>87466786</t>
-  </si>
-  <si>
-    <t>2455350</t>
-  </si>
-  <si>
-    <t>nsc-299195</t>
-  </si>
-  <si>
-    <t>87466790</t>
-  </si>
-  <si>
-    <t>2435778</t>
-  </si>
-  <si>
-    <t>nsc-279836</t>
-  </si>
-  <si>
-    <t>87466799</t>
-  </si>
-  <si>
-    <t>2435664</t>
-  </si>
-  <si>
-    <t>nsc-301739</t>
-  </si>
-  <si>
-    <t>87466791</t>
-  </si>
-  <si>
-    <t>415639</t>
-  </si>
-  <si>
-    <t>mitoxantrone acetate</t>
-  </si>
-  <si>
-    <t>87466778</t>
-  </si>
-  <si>
-    <t>324781</t>
-  </si>
-  <si>
-    <t>pralifan</t>
-  </si>
-  <si>
-    <t>87466793</t>
-  </si>
-  <si>
-    <t>2983994</t>
-  </si>
-  <si>
-    <t>onkotrone</t>
-  </si>
-  <si>
-    <t>87466788</t>
-  </si>
-  <si>
-    <t>2983955</t>
-  </si>
-  <si>
-    <t>mitroxone</t>
-  </si>
-  <si>
-    <t>87466804</t>
-  </si>
-  <si>
-    <t>2435779</t>
-  </si>
-  <si>
-    <t>nsc-301739d</t>
-  </si>
-  <si>
-    <t>87466797</t>
-  </si>
-  <si>
-    <t>2435697</t>
-  </si>
-  <si>
-    <t>nsc-287836</t>
-  </si>
-  <si>
-    <t>87466792</t>
-  </si>
-  <si>
-    <t>2435685</t>
-  </si>
-  <si>
-    <t>cl-232325</t>
-  </si>
-  <si>
-    <t>87466781</t>
-  </si>
-  <si>
-    <t>356288</t>
-  </si>
-  <si>
-    <t>fluorexon stain</t>
-  </si>
-  <si>
-    <t>88857830</t>
+    <t>3382050</t>
+  </si>
+  <si>
+    <t>cytochrome p450 2c8 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>39418772</t>
+  </si>
+  <si>
+    <t>63497</t>
+  </si>
+  <si>
+    <t>fexofenadine</t>
+  </si>
+  <si>
+    <t>111440051</t>
   </si>
   <si>
     <t>219760</t>
@@ -666,25 +324,7 @@
     <t>fluticasone</t>
   </si>
   <si>
-    <t>160684440</t>
-  </si>
-  <si>
-    <t>2786518</t>
-  </si>
-  <si>
-    <t>cytochrome p450 2c8</t>
-  </si>
-  <si>
-    <t>105770623</t>
-  </si>
-  <si>
-    <t>63497</t>
-  </si>
-  <si>
-    <t>fexofenadine</t>
-  </si>
-  <si>
-    <t>177669398</t>
+    <t>94483346</t>
   </si>
   <si>
     <t>3728227</t>
@@ -693,7 +333,7 @@
     <t>miscellaneous topical preparations</t>
   </si>
   <si>
-    <t>167558669</t>
+    <t>101445028</t>
   </si>
   <si>
     <t>4048842</t>
@@ -702,7 +342,7 @@
     <t>ipratropium</t>
   </si>
   <si>
-    <t>157693561</t>
+    <t>91527880</t>
   </si>
   <si>
     <t>coexists with</t>
@@ -714,52 +354,52 @@
     <t>desloratadine</t>
   </si>
   <si>
-    <t>163081383</t>
-  </si>
-  <si>
-    <t>163072986</t>
+    <t>96838384</t>
   </si>
   <si>
     <t>stimulates</t>
   </si>
   <si>
+    <t>96847520</t>
+  </si>
+  <si>
+    <t>150997</t>
+  </si>
+  <si>
+    <t>tazarotene</t>
+  </si>
+  <si>
+    <t>121654697</t>
+  </si>
+  <si>
+    <t>121654890</t>
+  </si>
+  <si>
+    <t>121654899</t>
+  </si>
+  <si>
+    <t>121654786</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
     <t>5182064</t>
   </si>
   <si>
     <t>mometasone furoate</t>
   </si>
   <si>
-    <t>204466648</t>
+    <t>138281926</t>
+  </si>
+  <si>
+    <t>138217663</t>
   </si>
   <si>
     <t>converts to</t>
   </si>
   <si>
-    <t>204392108</t>
-  </si>
-  <si>
-    <t>204466643</t>
-  </si>
-  <si>
-    <t>150997</t>
-  </si>
-  <si>
-    <t>tazarotene</t>
-  </si>
-  <si>
-    <t>187800062</t>
-  </si>
-  <si>
-    <t>187800230</t>
-  </si>
-  <si>
-    <t>187800133</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>187800256</t>
+    <t>138281935</t>
   </si>
   <si>
     <t>3105102</t>
@@ -768,7 +408,7 @@
     <t>olopatadine</t>
   </si>
   <si>
-    <t>177669222</t>
+    <t>111439931</t>
   </si>
   <si>
     <t>3200359</t>
@@ -777,7 +417,7 @@
     <t>budesonide / formoterol</t>
   </si>
   <si>
-    <t>157693517</t>
+    <t>91527809</t>
   </si>
   <si>
     <t>632003</t>
@@ -786,7 +426,25 @@
     <t>fluticasone / salmeterol</t>
   </si>
   <si>
-    <t>157693528</t>
+    <t>91527816</t>
+  </si>
+  <si>
+    <t>3789692</t>
+  </si>
+  <si>
+    <t>skin and mucous membrane anti-inflammatory agents</t>
+  </si>
+  <si>
+    <t>137401113</t>
+  </si>
+  <si>
+    <t>2818610</t>
+  </si>
+  <si>
+    <t>mometasone nasal spray</t>
+  </si>
+  <si>
+    <t>138282113</t>
   </si>
   <si>
     <t>103203</t>
@@ -795,7 +453,43 @@
     <t>nasonex</t>
   </si>
   <si>
-    <t>157953199</t>
+    <t>91783571</t>
+  </si>
+  <si>
+    <t>1768899</t>
+  </si>
+  <si>
+    <t>corticosteroid [epc]</t>
+  </si>
+  <si>
+    <t>140000997</t>
+  </si>
+  <si>
+    <t>2701764</t>
+  </si>
+  <si>
+    <t>mometasone furoate 0.2 mg/actuat</t>
+  </si>
+  <si>
+    <t>138282149</t>
+  </si>
+  <si>
+    <t>1818416</t>
+  </si>
+  <si>
+    <t>mometasone topical product</t>
+  </si>
+  <si>
+    <t>138282389</t>
+  </si>
+  <si>
+    <t>1277845</t>
+  </si>
+  <si>
+    <t>mometasone furoate 0.1 mg/actuat</t>
+  </si>
+  <si>
+    <t>138282249</t>
   </si>
   <si>
     <t>613048</t>
@@ -804,61 +498,7 @@
     <t>mometasone furoate monohydrate</t>
   </si>
   <si>
-    <t>204466676</t>
-  </si>
-  <si>
-    <t>3789692</t>
-  </si>
-  <si>
-    <t>skin and mucous membrane anti-inflammatory agents</t>
-  </si>
-  <si>
-    <t>203585178</t>
-  </si>
-  <si>
-    <t>2818610</t>
-  </si>
-  <si>
-    <t>mometasone nasal spray</t>
-  </si>
-  <si>
-    <t>204466828</t>
-  </si>
-  <si>
-    <t>1768899</t>
-  </si>
-  <si>
-    <t>corticosteroid [epc]</t>
-  </si>
-  <si>
-    <t>206189297</t>
-  </si>
-  <si>
-    <t>2701764</t>
-  </si>
-  <si>
-    <t>mometasone furoate 0.2 mg/actuat</t>
-  </si>
-  <si>
-    <t>204466859</t>
-  </si>
-  <si>
-    <t>1818416</t>
-  </si>
-  <si>
-    <t>mometasone topical product</t>
-  </si>
-  <si>
-    <t>204467102</t>
-  </si>
-  <si>
-    <t>1277845</t>
-  </si>
-  <si>
-    <t>mometasone furoate 0.1 mg/actuat</t>
-  </si>
-  <si>
-    <t>204466942</t>
+    <t>138281965</t>
   </si>
   <si>
     <t>3194952</t>
@@ -867,7 +507,7 @@
     <t>budesonide nasal spray</t>
   </si>
   <si>
-    <t>199364355</t>
+    <t>133172046</t>
   </si>
   <si>
     <t>2533638</t>
@@ -876,7 +516,7 @@
     <t>mometasone furoate 1 mg/ml topical cream</t>
   </si>
   <si>
-    <t>204466694</t>
+    <t>138281986</t>
   </si>
   <si>
     <t>2396925</t>
@@ -885,7 +525,7 @@
     <t>mometasone furoate 0.001 mg/mg topical ointment</t>
   </si>
   <si>
-    <t>204466661</t>
+    <t>138281944</t>
   </si>
   <si>
     <t>2712653</t>
@@ -894,7 +534,7 @@
     <t>glucocorticoids-topical-medium potency</t>
   </si>
   <si>
-    <t>203909016</t>
+    <t>137720827</t>
   </si>
   <si>
     <t>838228</t>
@@ -903,25 +543,25 @@
     <t>formoterol / mometasone</t>
   </si>
   <si>
-    <t>206050306</t>
+    <t>138282303</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>139862006</t>
   </si>
   <si>
     <t>contains</t>
   </si>
   <si>
-    <t>204467006</t>
-  </si>
-  <si>
-    <t>is part of</t>
-  </si>
-  <si>
     <t>3369672</t>
   </si>
   <si>
     <t>mometasone nasal product</t>
   </si>
   <si>
-    <t>204466688</t>
+    <t>138281979</t>
   </si>
   <si>
     <t>2713838</t>
@@ -930,7 +570,7 @@
     <t>bronchodilators, anti-inflammatories</t>
   </si>
   <si>
-    <t>203911099</t>
+    <t>137723073</t>
   </si>
   <si>
     <t>3176497</t>
@@ -939,7 +579,7 @@
     <t>mometasone furoate 1 mg/ml</t>
   </si>
   <si>
-    <t>204466730</t>
+    <t>138282015</t>
   </si>
   <si>
     <t>3224970</t>
@@ -948,7 +588,7 @@
     <t>mometasone furoate 0.05 mg/actuat</t>
   </si>
   <si>
-    <t>204466740</t>
+    <t>138282029</t>
   </si>
   <si>
     <t>2396837</t>
@@ -957,7 +597,7 @@
     <t>mometasone furoate 1 mg/ml topical lotion</t>
   </si>
   <si>
-    <t>204466668</t>
+    <t>138281954</t>
   </si>
   <si>
     <t>2533650</t>
@@ -966,7 +606,7 @@
     <t>mometasone furoate 0.05 mg/actuat nasal spray</t>
   </si>
   <si>
-    <t>204466703</t>
+    <t>138281995</t>
   </si>
   <si>
     <t>880574</t>
@@ -975,7 +615,7 @@
     <t>formoterol / mometasone metered dose inhaler</t>
   </si>
   <si>
-    <t>204466992</t>
+    <t>138282293</t>
   </si>
   <si>
     <t>840295</t>
@@ -984,7 +624,7 @@
     <t>mometasone / salicylic acid</t>
   </si>
   <si>
-    <t>204467015</t>
+    <t>138282317</t>
   </si>
   <si>
     <t>3257037</t>
@@ -993,7 +633,7 @@
     <t>mometasone furoate 0.001 mg/mg</t>
   </si>
   <si>
-    <t>204466718</t>
+    <t>138282002</t>
   </si>
   <si>
     <t>2860082</t>
@@ -1002,7 +642,7 @@
     <t>mometasone furoate 0.2 mg/actuat inhalant powder</t>
   </si>
   <si>
-    <t>204466750</t>
+    <t>138282045</t>
   </si>
   <si>
     <t>1334222</t>
@@ -1011,7 +651,7 @@
     <t>mometasone furoate 0.1 mg/ml inhalant powder</t>
   </si>
   <si>
-    <t>204466966</t>
+    <t>138282275</t>
   </si>
   <si>
     <t>1061278</t>
@@ -1020,7 +660,7 @@
     <t>mometasone furoate 0.37 mg</t>
   </si>
   <si>
-    <t>204467031</t>
+    <t>138282331</t>
   </si>
   <si>
     <t>3015200</t>
@@ -1029,7 +669,7 @@
     <t>mometasone / salicylic acid topical ointment</t>
   </si>
   <si>
-    <t>204466808</t>
+    <t>138282093</t>
   </si>
   <si>
     <t>3014659</t>
@@ -1038,7 +678,7 @@
     <t>mometasone 0.001 mg/mg</t>
   </si>
   <si>
-    <t>204466796</t>
+    <t>138282080</t>
   </si>
   <si>
     <t>2854155</t>
@@ -1047,7 +687,7 @@
     <t>mometasone furoate 0.4 mg/actuat</t>
   </si>
   <si>
-    <t>204466784</t>
+    <t>138282067</t>
   </si>
   <si>
     <t>2817657</t>
@@ -1056,7 +696,7 @@
     <t>mometasone furoate 0.05 mg/ml</t>
   </si>
   <si>
-    <t>204466838</t>
+    <t>138282122</t>
   </si>
   <si>
     <t>2680099</t>
@@ -1065,7 +705,7 @@
     <t>mometasone 0.5 mg/ml</t>
   </si>
   <si>
-    <t>204466818</t>
+    <t>138282104</t>
   </si>
   <si>
     <t>1798085</t>
@@ -1074,7 +714,7 @@
     <t>formoterol / mometasone inhalant product</t>
   </si>
   <si>
-    <t>204467114</t>
+    <t>138282401</t>
   </si>
   <si>
     <t>1797848</t>
@@ -1083,7 +723,7 @@
     <t>mometasone / salicylic acid topical product</t>
   </si>
   <si>
-    <t>204467052</t>
+    <t>138282356</t>
   </si>
   <si>
     <t>1469333</t>
@@ -1092,7 +732,7 @@
     <t>120 actuat mometasone furoate 0.05 mg/actuat nasal inhaler</t>
   </si>
   <si>
-    <t>204466918</t>
+    <t>138282218</t>
   </si>
   <si>
     <t>1275872</t>
@@ -1101,7 +741,7 @@
     <t>mometasone furoate 0.1 mg/ml</t>
   </si>
   <si>
-    <t>204466955</t>
+    <t>138282264</t>
   </si>
   <si>
     <t>1209239</t>
@@ -1110,7 +750,7 @@
     <t>mometasone furoate 0.01 mg/mg</t>
   </si>
   <si>
-    <t>204466981</t>
+    <t>138282285</t>
   </si>
   <si>
     <t>676732</t>
@@ -1119,7 +759,7 @@
     <t>mometasone metered dose inhaler</t>
   </si>
   <si>
-    <t>204467124</t>
+    <t>138282413</t>
   </si>
   <si>
     <t>2853744</t>
@@ -1128,7 +768,7 @@
     <t>mometasone inhalant powder</t>
   </si>
   <si>
-    <t>204466770</t>
+    <t>138282057</t>
   </si>
   <si>
     <t>2713542</t>
@@ -1137,7 +777,7 @@
     <t>mometasone topical solution</t>
   </si>
   <si>
-    <t>204466847</t>
+    <t>138282135</t>
   </si>
   <si>
     <t>2657291</t>
@@ -1146,7 +786,7 @@
     <t>mometasone topical lotion</t>
   </si>
   <si>
-    <t>204466899</t>
+    <t>138282196</t>
   </si>
   <si>
     <t>2657006</t>
@@ -1155,7 +795,7 @@
     <t>mometasone topical ointment</t>
   </si>
   <si>
-    <t>204466885</t>
+    <t>138282180</t>
   </si>
   <si>
     <t>2656575</t>
@@ -1164,7 +804,7 @@
     <t>mometasone topical cream</t>
   </si>
   <si>
-    <t>204466871</t>
+    <t>138282168</t>
   </si>
   <si>
     <t>1798975</t>
@@ -1173,7 +813,7 @@
     <t>mometasone inhalant product</t>
   </si>
   <si>
-    <t>204467091</t>
+    <t>138282377</t>
   </si>
   <si>
     <t>1797464</t>
@@ -1182,7 +822,7 @@
     <t>mometasone drug implant product</t>
   </si>
   <si>
-    <t>204467066</t>
+    <t>138282367</t>
   </si>
   <si>
     <t>1576731</t>
@@ -1191,7 +831,7 @@
     <t>mometasone dry powder inhaler</t>
   </si>
   <si>
-    <t>204466931</t>
+    <t>138282231</t>
   </si>
   <si>
     <t>1470463</t>
@@ -1200,7 +840,7 @@
     <t>mometasone nasal inhaler</t>
   </si>
   <si>
-    <t>204466906</t>
+    <t>138282209</t>
   </si>
   <si>
     <t>1061969</t>
@@ -1209,7 +849,7 @@
     <t>mometasone drug implant</t>
   </si>
   <si>
-    <t>204467042</t>
+    <t>138282342</t>
   </si>
   <si>
     <t>129543</t>
@@ -1221,7 +861,7 @@
     <t>Anatomy</t>
   </si>
   <si>
-    <t>105770618</t>
+    <t>39418767</t>
   </si>
   <si>
     <t>2449184</t>
@@ -1230,7 +870,7 @@
     <t>tissue membrane</t>
   </si>
   <si>
-    <t>105770620</t>
+    <t>39418769</t>
   </si>
   <si>
     <t>150743</t>
@@ -1239,7 +879,7 @@
     <t>extracellular</t>
   </si>
   <si>
-    <t>105770619</t>
+    <t>39418768</t>
   </si>
   <si>
     <t>836328</t>
@@ -1248,7 +888,7 @@
     <t>blood</t>
   </si>
   <si>
-    <t>105770621</t>
+    <t>39418770</t>
   </si>
   <si>
     <t>4048205</t>
@@ -1257,7 +897,7 @@
     <t>langerhans cell</t>
   </si>
   <si>
-    <t>151778652</t>
+    <t>85329181</t>
   </si>
   <si>
     <t>disrupts</t>
@@ -1269,7 +909,7 @@
     <t>urine</t>
   </si>
   <si>
-    <t>105770622</t>
+    <t>39418771</t>
   </si>
   <si>
     <t>4042029</t>
@@ -1278,7 +918,7 @@
     <t>epithelial cells</t>
   </si>
   <si>
-    <t>163045430</t>
+    <t>96808552</t>
   </si>
   <si>
     <t>is location of</t>
@@ -1290,7 +930,7 @@
     <t>upper extremity</t>
   </si>
   <si>
-    <t>158887686</t>
+    <t>92692447</t>
   </si>
   <si>
     <t>4028305</t>
@@ -1299,7 +939,7 @@
     <t>nose</t>
   </si>
   <si>
-    <t>150480864</t>
+    <t>84030782</t>
   </si>
   <si>
     <t>4034606</t>
@@ -1308,40 +948,22 @@
     <t>eosinophil</t>
   </si>
   <si>
-    <t>186285346</t>
+    <t>120142468</t>
   </si>
   <si>
     <t>affects</t>
   </si>
   <si>
-    <t>2787844</t>
-  </si>
-  <si>
-    <t>abcb1 (homo sapiens)</t>
+    <t>2790658</t>
+  </si>
+  <si>
+    <t>nr3c1 (homo sapiens)</t>
   </si>
   <si>
     <t>Genes &amp; Molecular Sequences</t>
   </si>
   <si>
-    <t>85056720</t>
-  </si>
-  <si>
-    <t>2790658</t>
-  </si>
-  <si>
-    <t>nr3c1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111859030</t>
-  </si>
-  <si>
-    <t>2792098</t>
-  </si>
-  <si>
-    <t>abcg2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>87466733</t>
+    <t>45692701</t>
   </si>
   <si>
     <t>3136422</t>
@@ -1353,7 +975,7 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>105770613</t>
+    <t>39418762</t>
   </si>
   <si>
     <t>2940375</t>
@@ -1362,7 +984,7 @@
     <t>symptoms</t>
   </si>
   <si>
-    <t>136041585</t>
+    <t>69607644</t>
   </si>
   <si>
     <t>treats</t>
@@ -1374,7 +996,7 @@
     <t>pain</t>
   </si>
   <si>
-    <t>187841732</t>
+    <t>121631977</t>
   </si>
   <si>
     <t>is associated with</t>
@@ -1386,7 +1008,7 @@
     <t>observation parameter</t>
   </si>
   <si>
-    <t>189418231</t>
+    <t>123213896</t>
   </si>
   <si>
     <t>1595282</t>
@@ -1395,7 +1017,7 @@
     <t>asthma</t>
   </si>
   <si>
-    <t>158772883</t>
+    <t>92598515</t>
   </si>
   <si>
     <t>5096586</t>
@@ -1404,7 +1026,7 @@
     <t>pneumonia</t>
   </si>
   <si>
-    <t>140567492</t>
+    <t>74162984</t>
   </si>
   <si>
     <t>881200</t>
@@ -1413,7 +1035,7 @@
     <t>chronic obstructive airway disease</t>
   </si>
   <si>
-    <t>144628101</t>
+    <t>78235207</t>
   </si>
   <si>
     <t>645463</t>
@@ -1422,7 +1044,7 @@
     <t>dermatologic disorders</t>
   </si>
   <si>
-    <t>142873027</t>
+    <t>76488348</t>
   </si>
   <si>
     <t>5253921</t>
@@ -1431,7 +1053,19 @@
     <t>psoriasis</t>
   </si>
   <si>
-    <t>171882400</t>
+    <t>105688782</t>
+  </si>
+  <si>
+    <t>3772078</t>
+  </si>
+  <si>
+    <t>hepatotoxicity</t>
+  </si>
+  <si>
+    <t>7419025</t>
+  </si>
+  <si>
+    <t>7418479</t>
   </si>
   <si>
     <t>5131040</t>
@@ -1440,7 +1074,7 @@
     <t>pulmonary edema</t>
   </si>
   <si>
-    <t>140568143</t>
+    <t>74163658</t>
   </si>
   <si>
     <t>4034079</t>
@@ -1449,7 +1083,7 @@
     <t>effusion</t>
   </si>
   <si>
-    <t>181799621</t>
+    <t>115575513</t>
   </si>
   <si>
     <t>5700050</t>
@@ -1458,22 +1092,10 @@
     <t>atopic rhinitis</t>
   </si>
   <si>
-    <t>178066043</t>
-  </si>
-  <si>
-    <t>140346359</t>
-  </si>
-  <si>
-    <t>3045767</t>
-  </si>
-  <si>
-    <t>toxic liver disease</t>
-  </si>
-  <si>
-    <t>73826708</t>
-  </si>
-  <si>
-    <t>73826161</t>
+    <t>111856690</t>
+  </si>
+  <si>
+    <t>73963493</t>
   </si>
   <si>
     <t>3815068</t>
@@ -1482,7 +1104,7 @@
     <t>rhinitis</t>
   </si>
   <si>
-    <t>167927292</t>
+    <t>101693669</t>
   </si>
   <si>
     <t>389308</t>
@@ -1491,7 +1113,7 @@
     <t>hay fever</t>
   </si>
   <si>
-    <t>168854524</t>
+    <t>102653727</t>
   </si>
   <si>
     <t>3749880</t>
@@ -1500,7 +1122,7 @@
     <t>childhood asthma</t>
   </si>
   <si>
-    <t>158872780</t>
+    <t>92698282</t>
   </si>
   <si>
     <t>does not treat</t>
@@ -1512,7 +1134,7 @@
     <t>sore throat</t>
   </si>
   <si>
-    <t>155190947</t>
+    <t>88966056</t>
   </si>
   <si>
     <t>prevents</t>
@@ -1524,7 +1146,7 @@
     <t>3/6</t>
   </si>
   <si>
-    <t>168182116</t>
+    <t>101968116</t>
   </si>
   <si>
     <t>augments</t>
@@ -1536,7 +1158,7 @@
     <t>eosinophilic esophagitis</t>
   </si>
   <si>
-    <t>186835083</t>
+    <t>120618852</t>
   </si>
   <si>
     <t>2422249</t>
@@ -1545,7 +1167,7 @@
     <t>severe asthma</t>
   </si>
   <si>
-    <t>142071227</t>
+    <t>75635974</t>
   </si>
   <si>
     <t>3815157</t>
@@ -1554,7 +1176,7 @@
     <t>rhinitis, allergic, perennial</t>
   </si>
   <si>
-    <t>176180879</t>
+    <t>110050294</t>
   </si>
   <si>
     <t>812364</t>
@@ -1563,7 +1185,7 @@
     <t>chloasma</t>
   </si>
   <si>
-    <t>177341206</t>
+    <t>111116624</t>
   </si>
   <si>
     <t>3769645</t>
@@ -1572,10 +1194,10 @@
     <t>nasal symptom, nos</t>
   </si>
   <si>
-    <t>150482317</t>
-  </si>
-  <si>
-    <t>180582943</t>
+    <t>84032070</t>
+  </si>
+  <si>
+    <t>114377142</t>
   </si>
   <si>
     <t>5804753</t>
@@ -1584,10 +1206,10 @@
     <t>hypertrophy of adenoids</t>
   </si>
   <si>
-    <t>136041058</t>
-  </si>
-  <si>
-    <t>136049218</t>
+    <t>69615419</t>
+  </si>
+  <si>
+    <t>69606973</t>
   </si>
   <si>
     <t>3078565</t>
@@ -1596,10 +1218,10 @@
     <t>no obstruction of airway</t>
   </si>
   <si>
-    <t>199923577</t>
-  </si>
-  <si>
-    <t>199943937</t>
+    <t>133750036</t>
+  </si>
+  <si>
+    <t>133729815</t>
   </si>
   <si>
     <t>3202090</t>
@@ -1608,7 +1230,7 @@
     <t>childhood atopic dermatitis</t>
   </si>
   <si>
-    <t>180027212</t>
+    <t>113902761</t>
   </si>
   <si>
     <t>4028558</t>
@@ -1617,7 +1239,7 @@
     <t>itching of eye</t>
   </si>
   <si>
-    <t>177669327</t>
+    <t>111440000</t>
   </si>
   <si>
     <t>3151463</t>
@@ -1626,7 +1248,7 @@
     <t>genital lichen sclerosus</t>
   </si>
   <si>
-    <t>165685236</t>
+    <t>99570313</t>
   </si>
   <si>
     <t>4042138</t>
@@ -1638,7 +1260,7 @@
     <t>Physiology</t>
   </si>
   <si>
-    <t>105770612</t>
+    <t>39418761</t>
   </si>
   <si>
     <t>2835561</t>
@@ -1647,7 +1269,7 @@
     <t>increased cell membrane integrity [pe]</t>
   </si>
   <si>
-    <t>105770614</t>
+    <t>39418763</t>
   </si>
   <si>
     <t>84764</t>
@@ -1656,7 +1278,7 @@
     <t>growth</t>
   </si>
   <si>
-    <t>157953235</t>
+    <t>91783602</t>
   </si>
   <si>
     <t>4747186</t>
@@ -1665,13 +1287,13 @@
     <t>apoptosis</t>
   </si>
   <si>
-    <t>186281344</t>
-  </si>
-  <si>
-    <t>186819611</t>
-  </si>
-  <si>
-    <t>186281614</t>
+    <t>120138554</t>
+  </si>
+  <si>
+    <t>120138827</t>
+  </si>
+  <si>
+    <t>120678784</t>
   </si>
   <si>
     <t>3241775</t>
@@ -1680,7 +1302,7 @@
     <t>cell secretion</t>
   </si>
   <si>
-    <t>161394383</t>
+    <t>95161121</t>
   </si>
   <si>
     <t>3012710</t>
@@ -1689,7 +1311,7 @@
     <t>sensitisation</t>
   </si>
   <si>
-    <t>151779100</t>
+    <t>85329566</t>
   </si>
   <si>
     <t>2366264</t>
@@ -1698,7 +1320,7 @@
     <t>drug metabolism</t>
   </si>
   <si>
-    <t>134166160</t>
+    <t>67777271</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1450,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.747653007507324</v>
+        <v>6.629244804382324</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -1857,7 +1479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.303862571716309</v>
+        <v>6.1853790283203125</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -1886,7 +1508,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.142314434051514</v>
+        <v>6.0241265296936035</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -1915,7 +1537,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.130421161651611</v>
+        <v>6.011673450469971</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
@@ -1944,7 +1566,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.1202263832092285</v>
+        <v>6.000308990478516</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -1968,47 +1590,65 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.118717193603516</v>
+        <v>5.927340507507324</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.045748233795166</v>
+        <v>5.7997565269470215</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -2023,33 +1663,15 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.986742973327637</v>
+        <v>5.78099250793457</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -2078,7 +1700,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.899400234222412</v>
+        <v>5.770162582397461</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -2102,12 +1724,12 @@
         <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.899207592010498</v>
+        <v>5.55507755279541</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -2131,12 +1753,12 @@
         <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.888570308685303</v>
+        <v>5.511458396911621</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -2160,12 +1782,12 @@
         <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.848114967346191</v>
+        <v>5.431379795074463</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -2189,12 +1811,12 @@
         <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.801090717315674</v>
+        <v>5.4209089279174805</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -2223,7 +1845,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.775968551635742</v>
+        <v>5.416693687438965</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -2247,18 +1869,18 @@
         <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.772239685058594</v>
+        <v>5.321341514587402</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -2273,21 +1895,21 @@
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.766781330108643</v>
+        <v>5.312363624572754</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -2302,21 +1924,21 @@
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.765865325927734</v>
+        <v>5.106653213500977</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -2331,21 +1953,21 @@
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.764421463012695</v>
+        <v>5.097916603088379</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -2360,21 +1982,21 @@
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.763895034790039</v>
+        <v>4.878384113311768</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -2389,21 +2011,21 @@
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.763895034790039</v>
+        <v>4.794557571411133</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -2418,21 +2040,21 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.763895034790039</v>
+        <v>4.780317306518555</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -2447,21 +2069,21 @@
         <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.763895034790039</v>
+        <v>4.696478843688965</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
@@ -2476,21 +2098,21 @@
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.763895034790039</v>
+        <v>4.642978668212891</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -2505,21 +2127,21 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.763763427734375</v>
+        <v>4.596926689147949</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -2534,21 +2156,27 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.763763427734375</v>
+        <v>4.566437721252441</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
@@ -2563,21 +2191,39 @@
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="J26" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" t="s">
+        <v>109</v>
+      </c>
+      <c r="L26" t="s">
+        <v>119</v>
+      </c>
+      <c r="M26" t="s">
+        <v>109</v>
+      </c>
+      <c r="N26" t="s">
+        <v>120</v>
+      </c>
+      <c r="O26" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.763763427734375</v>
+        <v>4.528505325317383</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
@@ -2592,21 +2238,33 @@
         <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="J27" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" t="s">
+        <v>126</v>
+      </c>
+      <c r="L27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M27" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.763763427734375</v>
+        <v>4.475409507751465</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -2621,21 +2279,21 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.763763427734375</v>
+        <v>4.198987007141113</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
@@ -2650,21 +2308,21 @@
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.763763427734375</v>
+        <v>4.0764946937561035</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
@@ -2679,21 +2337,21 @@
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.763763427734375</v>
+        <v>3.7181694507598877</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
         <v>27</v>
@@ -2708,21 +2366,21 @@
         <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.763763427734375</v>
+        <v>3.574262857437134</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
         <v>27</v>
@@ -2737,21 +2395,21 @@
         <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.763763427734375</v>
+        <v>3.5584685802459717</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
         <v>27</v>
@@ -2766,21 +2424,21 @@
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.673485279083252</v>
+        <v>3.488832712173462</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
@@ -2795,21 +2453,21 @@
         <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.629866123199463</v>
+        <v>3.449324131011963</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
         <v>27</v>
@@ -2824,21 +2482,21 @@
         <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.575723648071289</v>
+        <v>3.357553720474243</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
         <v>27</v>
@@ -2853,21 +2511,21 @@
         <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.549787521362305</v>
+        <v>3.3312246799468994</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
@@ -2882,21 +2540,21 @@
         <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.535992622375488</v>
+        <v>3.3031959533691406</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
@@ -2911,21 +2569,21 @@
         <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.534432411193848</v>
+        <v>3.273232936859131</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
@@ -2940,21 +2598,21 @@
         <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I39" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.533761978149414</v>
+        <v>3.2410480976104736</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
@@ -2969,21 +2627,21 @@
         <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.441412448883057</v>
+        <v>3.2062859535217285</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
@@ -2998,21 +2656,21 @@
         <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="I41" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.432186603546143</v>
+        <v>3.1271047592163086</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
@@ -3027,21 +2685,21 @@
         <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="I42" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.225060939788818</v>
+        <v>3.0301947593688965</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -3056,21 +2714,27 @@
         <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="I43" t="s">
-        <v>35</v>
+        <v>176</v>
+      </c>
+      <c r="J43" t="s">
+        <v>177</v>
+      </c>
+      <c r="K43" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.216324329376221</v>
+        <v>3.0301947593688965</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="D44" t="s">
         <v>27</v>
@@ -3085,21 +2749,21 @@
         <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I44" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.0584259033203125</v>
+        <v>3.0301947593688965</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
@@ -3114,21 +2778,21 @@
         <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.0557451248168945</v>
+        <v>2.972202777862549</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
@@ -3143,21 +2807,21 @@
         <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.052370548248291</v>
+        <v>2.9052560329437256</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
@@ -3172,21 +2836,21 @@
         <v>27</v>
       </c>
       <c r="H47" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.027985095977783</v>
+        <v>2.9052560329437256</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
@@ -3201,21 +2865,21 @@
         <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.00366735458374</v>
+        <v>2.8260748386383057</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
@@ -3230,21 +2894,21 @@
         <v>27</v>
       </c>
       <c r="H49" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.992924690246582</v>
+        <v>2.6042261123657227</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D50" t="s">
         <v>27</v>
@@ -3259,21 +2923,21 @@
         <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.991367816925049</v>
+        <v>2.6042261123657227</v>
       </c>
       <c r="B51" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
@@ -3288,21 +2952,21 @@
         <v>27</v>
       </c>
       <c r="H51" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.99058723449707</v>
+        <v>2.6042261123657227</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
@@ -3317,21 +2981,21 @@
         <v>27</v>
       </c>
       <c r="H52" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.99058723449707</v>
+        <v>2.6042261123657227</v>
       </c>
       <c r="B53" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C53" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
@@ -3346,21 +3010,21 @@
         <v>27</v>
       </c>
       <c r="H53" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I53" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4.99058723449707</v>
+        <v>2.6042261123657227</v>
       </c>
       <c r="B54" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C54" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
@@ -3375,21 +3039,21 @@
         <v>27</v>
       </c>
       <c r="H54" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="I54" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.99058723449707</v>
+        <v>2.6042261123657227</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C55" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
@@ -3404,21 +3068,21 @@
         <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.99058723449707</v>
+        <v>2.4281346797943115</v>
       </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C56" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D56" t="s">
         <v>27</v>
@@ -3433,21 +3097,21 @@
         <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="I56" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.99058723449707</v>
+        <v>2.4281346797943115</v>
       </c>
       <c r="B57" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D57" t="s">
         <v>27</v>
@@ -3462,21 +3126,21 @@
         <v>27</v>
       </c>
       <c r="H57" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.99058723449707</v>
+        <v>2.4281346797943115</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C58" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D58" t="s">
         <v>27</v>
@@ -3491,21 +3155,21 @@
         <v>27</v>
       </c>
       <c r="H58" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4.989022254943848</v>
+        <v>2.4281346797943115</v>
       </c>
       <c r="B59" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C59" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
@@ -3520,21 +3184,21 @@
         <v>27</v>
       </c>
       <c r="H59" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.942741870880127</v>
+        <v>2.4281346797943115</v>
       </c>
       <c r="B60" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
@@ -3549,21 +3213,21 @@
         <v>27</v>
       </c>
       <c r="H60" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="I60" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4.9312543869018555</v>
+        <v>2.4281346797943115</v>
       </c>
       <c r="B61" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C61" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D61" t="s">
         <v>27</v>
@@ -3578,21 +3242,21 @@
         <v>27</v>
       </c>
       <c r="H61" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4.912965774536133</v>
+        <v>2.4281346797943115</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
@@ -3607,21 +3271,21 @@
         <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="I62" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4.814886569976807</v>
+        <v>2.4281346797943115</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C63" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D63" t="s">
         <v>27</v>
@@ -3636,21 +3300,21 @@
         <v>27</v>
       </c>
       <c r="H63" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4.767956733703613</v>
+        <v>2.4281346797943115</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C64" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D64" t="s">
         <v>27</v>
@@ -3665,21 +3329,21 @@
         <v>27</v>
       </c>
       <c r="H64" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="I64" t="s">
-        <v>229</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4.715334892272949</v>
+        <v>2.4281346797943115</v>
       </c>
       <c r="B65" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C65" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D65" t="s">
         <v>27</v>
@@ -3694,27 +3358,21 @@
         <v>27</v>
       </c>
       <c r="H65" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="I65" t="s">
-        <v>39</v>
-      </c>
-      <c r="J65" t="s">
-        <v>233</v>
-      </c>
-      <c r="K65" t="s">
-        <v>234</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4.713860034942627</v>
+        <v>2.1271047592163086</v>
       </c>
       <c r="B66" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C66" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
@@ -3729,33 +3387,21 @@
         <v>27</v>
       </c>
       <c r="H66" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="I66" t="s">
-        <v>238</v>
-      </c>
-      <c r="J66" t="s">
-        <v>239</v>
-      </c>
-      <c r="K66" t="s">
-        <v>238</v>
-      </c>
-      <c r="L66" t="s">
-        <v>240</v>
-      </c>
-      <c r="M66" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4.684845447540283</v>
+        <v>2.1271047592163086</v>
       </c>
       <c r="B67" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C67" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D67" t="s">
         <v>27</v>
@@ -3770,39 +3416,21 @@
         <v>27</v>
       </c>
       <c r="H67" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I67" t="s">
-        <v>35</v>
-      </c>
-      <c r="J67" t="s">
-        <v>244</v>
-      </c>
-      <c r="K67" t="s">
-        <v>229</v>
-      </c>
-      <c r="L67" t="s">
-        <v>245</v>
-      </c>
-      <c r="M67" t="s">
-        <v>246</v>
-      </c>
-      <c r="N67" t="s">
-        <v>247</v>
-      </c>
-      <c r="O67" t="s">
-        <v>229</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4.60153865814209</v>
+        <v>2.1271047592163086</v>
       </c>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C68" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D68" t="s">
         <v>27</v>
@@ -3817,21 +3445,21 @@
         <v>27</v>
       </c>
       <c r="H68" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I68" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4.317394733428955</v>
+        <v>2.1271047592163086</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C69" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D69" t="s">
         <v>27</v>
@@ -3846,21 +3474,21 @@
         <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I69" t="s">
-        <v>229</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.1949028968811035</v>
+        <v>2.1271047592163086</v>
       </c>
       <c r="B70" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C70" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D70" t="s">
         <v>27</v>
@@ -3875,21 +3503,21 @@
         <v>27</v>
       </c>
       <c r="H70" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I70" t="s">
-        <v>229</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4.084361553192139</v>
+        <v>2.1271047592163086</v>
       </c>
       <c r="B71" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C71" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D71" t="s">
         <v>27</v>
@@ -3904,21 +3532,21 @@
         <v>27</v>
       </c>
       <c r="H71" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I71" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4.001387596130371</v>
+        <v>2.1271047592163086</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D72" t="s">
         <v>27</v>
@@ -3933,21 +3561,21 @@
         <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I72" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3.8365771770477295</v>
+        <v>2.1271047592163086</v>
       </c>
       <c r="B73" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C73" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D73" t="s">
         <v>27</v>
@@ -3962,21 +3590,21 @@
         <v>27</v>
       </c>
       <c r="H73" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I73" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3.6926705837249756</v>
+        <v>2.1271047592163086</v>
       </c>
       <c r="B74" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C74" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D74" t="s">
         <v>27</v>
@@ -3991,7 +3619,7 @@
         <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I74" t="s">
         <v>31</v>
@@ -3999,13 +3627,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3.6072404384613037</v>
+        <v>2.1271047592163086</v>
       </c>
       <c r="B75" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C75" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D75" t="s">
         <v>27</v>
@@ -4020,21 +3648,21 @@
         <v>27</v>
       </c>
       <c r="H75" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I75" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3.5677318572998047</v>
+        <v>2.1271047592163086</v>
       </c>
       <c r="B76" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C76" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D76" t="s">
         <v>27</v>
@@ -4049,1175 +3677,9 @@
         <v>27</v>
       </c>
       <c r="H76" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I76" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>3.475961685180664</v>
-      </c>
-      <c r="B77" t="s">
-        <v>275</v>
-      </c>
-      <c r="C77" t="s">
-        <v>276</v>
-      </c>
-      <c r="D77" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" t="s">
-        <v>28</v>
-      </c>
-      <c r="F77" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
-      <c r="H77" t="s">
-        <v>277</v>
-      </c>
-      <c r="I77" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>3.4496326446533203</v>
-      </c>
-      <c r="B78" t="s">
-        <v>278</v>
-      </c>
-      <c r="C78" t="s">
-        <v>279</v>
-      </c>
-      <c r="D78" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" t="s">
-        <v>28</v>
-      </c>
-      <c r="F78" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" t="s">
-        <v>280</v>
-      </c>
-      <c r="I78" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>3.3916406631469727</v>
-      </c>
-      <c r="B79" t="s">
-        <v>281</v>
-      </c>
-      <c r="C79" t="s">
-        <v>282</v>
-      </c>
-      <c r="D79" t="s">
-        <v>27</v>
-      </c>
-      <c r="E79" t="s">
-        <v>28</v>
-      </c>
-      <c r="F79" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" t="s">
-        <v>283</v>
-      </c>
-      <c r="I79" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>3.3594560623168945</v>
-      </c>
-      <c r="B80" t="s">
-        <v>284</v>
-      </c>
-      <c r="C80" t="s">
-        <v>285</v>
-      </c>
-      <c r="D80" t="s">
-        <v>27</v>
-      </c>
-      <c r="E80" t="s">
-        <v>28</v>
-      </c>
-      <c r="F80" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" t="s">
-        <v>286</v>
-      </c>
-      <c r="I80" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>3.3246939182281494</v>
-      </c>
-      <c r="B81" t="s">
-        <v>287</v>
-      </c>
-      <c r="C81" t="s">
-        <v>288</v>
-      </c>
-      <c r="D81" t="s">
-        <v>27</v>
-      </c>
-      <c r="E81" t="s">
-        <v>28</v>
-      </c>
-      <c r="F81" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" t="s">
-        <v>289</v>
-      </c>
-      <c r="I81" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>3.2455127239227295</v>
-      </c>
-      <c r="B82" t="s">
-        <v>290</v>
-      </c>
-      <c r="C82" t="s">
-        <v>291</v>
-      </c>
-      <c r="D82" t="s">
-        <v>27</v>
-      </c>
-      <c r="E82" t="s">
-        <v>28</v>
-      </c>
-      <c r="F82" t="s">
-        <v>29</v>
-      </c>
-      <c r="G82" t="s">
-        <v>27</v>
-      </c>
-      <c r="H82" t="s">
-        <v>292</v>
-      </c>
-      <c r="I82" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>3.1486027240753174</v>
-      </c>
-      <c r="B83" t="s">
-        <v>293</v>
-      </c>
-      <c r="C83" t="s">
-        <v>294</v>
-      </c>
-      <c r="D83" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F83" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" t="s">
-        <v>27</v>
-      </c>
-      <c r="H83" t="s">
-        <v>295</v>
-      </c>
-      <c r="I83" t="s">
-        <v>296</v>
-      </c>
-      <c r="J83" t="s">
-        <v>297</v>
-      </c>
-      <c r="K83" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>3.1486027240753174</v>
-      </c>
-      <c r="B84" t="s">
-        <v>299</v>
-      </c>
-      <c r="C84" t="s">
-        <v>300</v>
-      </c>
-      <c r="D84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" t="s">
-        <v>28</v>
-      </c>
-      <c r="F84" t="s">
-        <v>29</v>
-      </c>
-      <c r="G84" t="s">
-        <v>27</v>
-      </c>
-      <c r="H84" t="s">
-        <v>301</v>
-      </c>
-      <c r="I84" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>3.1486027240753174</v>
-      </c>
-      <c r="B85" t="s">
-        <v>302</v>
-      </c>
-      <c r="C85" t="s">
-        <v>303</v>
-      </c>
-      <c r="D85" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" t="s">
-        <v>28</v>
-      </c>
-      <c r="F85" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
-      <c r="H85" t="s">
-        <v>304</v>
-      </c>
-      <c r="I85" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>3.0906107425689697</v>
-      </c>
-      <c r="B86" t="s">
-        <v>305</v>
-      </c>
-      <c r="C86" t="s">
-        <v>306</v>
-      </c>
-      <c r="D86" t="s">
-        <v>27</v>
-      </c>
-      <c r="E86" t="s">
-        <v>28</v>
-      </c>
-      <c r="F86" t="s">
-        <v>29</v>
-      </c>
-      <c r="G86" t="s">
-        <v>27</v>
-      </c>
-      <c r="H86" t="s">
-        <v>307</v>
-      </c>
-      <c r="I86" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>3.0236639976501465</v>
-      </c>
-      <c r="B87" t="s">
-        <v>308</v>
-      </c>
-      <c r="C87" t="s">
-        <v>309</v>
-      </c>
-      <c r="D87" t="s">
-        <v>27</v>
-      </c>
-      <c r="E87" t="s">
-        <v>28</v>
-      </c>
-      <c r="F87" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87" t="s">
-        <v>27</v>
-      </c>
-      <c r="H87" t="s">
-        <v>310</v>
-      </c>
-      <c r="I87" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>3.0236639976501465</v>
-      </c>
-      <c r="B88" t="s">
-        <v>311</v>
-      </c>
-      <c r="C88" t="s">
-        <v>312</v>
-      </c>
-      <c r="D88" t="s">
-        <v>27</v>
-      </c>
-      <c r="E88" t="s">
-        <v>28</v>
-      </c>
-      <c r="F88" t="s">
-        <v>29</v>
-      </c>
-      <c r="G88" t="s">
-        <v>27</v>
-      </c>
-      <c r="H88" t="s">
-        <v>313</v>
-      </c>
-      <c r="I88" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>2.9444825649261475</v>
-      </c>
-      <c r="B89" t="s">
-        <v>314</v>
-      </c>
-      <c r="C89" t="s">
-        <v>315</v>
-      </c>
-      <c r="D89" t="s">
-        <v>27</v>
-      </c>
-      <c r="E89" t="s">
-        <v>28</v>
-      </c>
-      <c r="F89" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" t="s">
-        <v>27</v>
-      </c>
-      <c r="H89" t="s">
-        <v>316</v>
-      </c>
-      <c r="I89" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>2.7226338386535645</v>
-      </c>
-      <c r="B90" t="s">
-        <v>317</v>
-      </c>
-      <c r="C90" t="s">
-        <v>318</v>
-      </c>
-      <c r="D90" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" t="s">
-        <v>28</v>
-      </c>
-      <c r="F90" t="s">
-        <v>29</v>
-      </c>
-      <c r="G90" t="s">
-        <v>27</v>
-      </c>
-      <c r="H90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I90" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>2.7226338386535645</v>
-      </c>
-      <c r="B91" t="s">
-        <v>320</v>
-      </c>
-      <c r="C91" t="s">
-        <v>321</v>
-      </c>
-      <c r="D91" t="s">
-        <v>27</v>
-      </c>
-      <c r="E91" t="s">
-        <v>28</v>
-      </c>
-      <c r="F91" t="s">
-        <v>29</v>
-      </c>
-      <c r="G91" t="s">
-        <v>27</v>
-      </c>
-      <c r="H91" t="s">
-        <v>322</v>
-      </c>
-      <c r="I91" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>2.7226338386535645</v>
-      </c>
-      <c r="B92" t="s">
-        <v>323</v>
-      </c>
-      <c r="C92" t="s">
-        <v>324</v>
-      </c>
-      <c r="D92" t="s">
-        <v>27</v>
-      </c>
-      <c r="E92" t="s">
-        <v>28</v>
-      </c>
-      <c r="F92" t="s">
-        <v>29</v>
-      </c>
-      <c r="G92" t="s">
-        <v>27</v>
-      </c>
-      <c r="H92" t="s">
-        <v>325</v>
-      </c>
-      <c r="I92" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>2.7226338386535645</v>
-      </c>
-      <c r="B93" t="s">
-        <v>326</v>
-      </c>
-      <c r="C93" t="s">
-        <v>327</v>
-      </c>
-      <c r="D93" t="s">
-        <v>27</v>
-      </c>
-      <c r="E93" t="s">
-        <v>28</v>
-      </c>
-      <c r="F93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G93" t="s">
-        <v>27</v>
-      </c>
-      <c r="H93" t="s">
-        <v>328</v>
-      </c>
-      <c r="I93" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>2.7226338386535645</v>
-      </c>
-      <c r="B94" t="s">
-        <v>329</v>
-      </c>
-      <c r="C94" t="s">
-        <v>330</v>
-      </c>
-      <c r="D94" t="s">
-        <v>27</v>
-      </c>
-      <c r="E94" t="s">
-        <v>28</v>
-      </c>
-      <c r="F94" t="s">
-        <v>29</v>
-      </c>
-      <c r="G94" t="s">
-        <v>27</v>
-      </c>
-      <c r="H94" t="s">
-        <v>331</v>
-      </c>
-      <c r="I94" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>2.7226338386535645</v>
-      </c>
-      <c r="B95" t="s">
-        <v>332</v>
-      </c>
-      <c r="C95" t="s">
-        <v>333</v>
-      </c>
-      <c r="D95" t="s">
-        <v>27</v>
-      </c>
-      <c r="E95" t="s">
-        <v>28</v>
-      </c>
-      <c r="F95" t="s">
-        <v>29</v>
-      </c>
-      <c r="G95" t="s">
-        <v>27</v>
-      </c>
-      <c r="H95" t="s">
-        <v>334</v>
-      </c>
-      <c r="I95" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>2.5465426445007324</v>
-      </c>
-      <c r="B96" t="s">
-        <v>335</v>
-      </c>
-      <c r="C96" t="s">
-        <v>336</v>
-      </c>
-      <c r="D96" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" t="s">
-        <v>28</v>
-      </c>
-      <c r="F96" t="s">
-        <v>29</v>
-      </c>
-      <c r="G96" t="s">
-        <v>27</v>
-      </c>
-      <c r="H96" t="s">
-        <v>337</v>
-      </c>
-      <c r="I96" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>2.5465426445007324</v>
-      </c>
-      <c r="B97" t="s">
-        <v>338</v>
-      </c>
-      <c r="C97" t="s">
-        <v>339</v>
-      </c>
-      <c r="D97" t="s">
-        <v>27</v>
-      </c>
-      <c r="E97" t="s">
-        <v>28</v>
-      </c>
-      <c r="F97" t="s">
-        <v>29</v>
-      </c>
-      <c r="G97" t="s">
-        <v>27</v>
-      </c>
-      <c r="H97" t="s">
-        <v>340</v>
-      </c>
-      <c r="I97" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>2.5465426445007324</v>
-      </c>
-      <c r="B98" t="s">
-        <v>341</v>
-      </c>
-      <c r="C98" t="s">
-        <v>342</v>
-      </c>
-      <c r="D98" t="s">
-        <v>27</v>
-      </c>
-      <c r="E98" t="s">
-        <v>28</v>
-      </c>
-      <c r="F98" t="s">
-        <v>29</v>
-      </c>
-      <c r="G98" t="s">
-        <v>27</v>
-      </c>
-      <c r="H98" t="s">
-        <v>343</v>
-      </c>
-      <c r="I98" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>2.5465426445007324</v>
-      </c>
-      <c r="B99" t="s">
-        <v>344</v>
-      </c>
-      <c r="C99" t="s">
-        <v>345</v>
-      </c>
-      <c r="D99" t="s">
-        <v>27</v>
-      </c>
-      <c r="E99" t="s">
-        <v>28</v>
-      </c>
-      <c r="F99" t="s">
-        <v>29</v>
-      </c>
-      <c r="G99" t="s">
-        <v>27</v>
-      </c>
-      <c r="H99" t="s">
-        <v>346</v>
-      </c>
-      <c r="I99" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>2.5465426445007324</v>
-      </c>
-      <c r="B100" t="s">
-        <v>347</v>
-      </c>
-      <c r="C100" t="s">
-        <v>348</v>
-      </c>
-      <c r="D100" t="s">
-        <v>27</v>
-      </c>
-      <c r="E100" t="s">
-        <v>28</v>
-      </c>
-      <c r="F100" t="s">
-        <v>29</v>
-      </c>
-      <c r="G100" t="s">
-        <v>27</v>
-      </c>
-      <c r="H100" t="s">
-        <v>349</v>
-      </c>
-      <c r="I100" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>2.5465426445007324</v>
-      </c>
-      <c r="B101" t="s">
-        <v>350</v>
-      </c>
-      <c r="C101" t="s">
-        <v>351</v>
-      </c>
-      <c r="D101" t="s">
-        <v>27</v>
-      </c>
-      <c r="E101" t="s">
-        <v>28</v>
-      </c>
-      <c r="F101" t="s">
-        <v>29</v>
-      </c>
-      <c r="G101" t="s">
-        <v>27</v>
-      </c>
-      <c r="H101" t="s">
-        <v>352</v>
-      </c>
-      <c r="I101" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>2.5465426445007324</v>
-      </c>
-      <c r="B102" t="s">
-        <v>353</v>
-      </c>
-      <c r="C102" t="s">
-        <v>354</v>
-      </c>
-      <c r="D102" t="s">
-        <v>27</v>
-      </c>
-      <c r="E102" t="s">
-        <v>28</v>
-      </c>
-      <c r="F102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G102" t="s">
-        <v>27</v>
-      </c>
-      <c r="H102" t="s">
-        <v>355</v>
-      </c>
-      <c r="I102" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>2.5465426445007324</v>
-      </c>
-      <c r="B103" t="s">
-        <v>356</v>
-      </c>
-      <c r="C103" t="s">
-        <v>357</v>
-      </c>
-      <c r="D103" t="s">
-        <v>27</v>
-      </c>
-      <c r="E103" t="s">
-        <v>28</v>
-      </c>
-      <c r="F103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G103" t="s">
-        <v>27</v>
-      </c>
-      <c r="H103" t="s">
-        <v>358</v>
-      </c>
-      <c r="I103" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>2.5465426445007324</v>
-      </c>
-      <c r="B104" t="s">
-        <v>359</v>
-      </c>
-      <c r="C104" t="s">
-        <v>360</v>
-      </c>
-      <c r="D104" t="s">
-        <v>27</v>
-      </c>
-      <c r="E104" t="s">
-        <v>28</v>
-      </c>
-      <c r="F104" t="s">
-        <v>29</v>
-      </c>
-      <c r="G104" t="s">
-        <v>27</v>
-      </c>
-      <c r="H104" t="s">
-        <v>361</v>
-      </c>
-      <c r="I104" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>2.5465426445007324</v>
-      </c>
-      <c r="B105" t="s">
-        <v>362</v>
-      </c>
-      <c r="C105" t="s">
-        <v>363</v>
-      </c>
-      <c r="D105" t="s">
-        <v>27</v>
-      </c>
-      <c r="E105" t="s">
-        <v>28</v>
-      </c>
-      <c r="F105" t="s">
-        <v>29</v>
-      </c>
-      <c r="G105" t="s">
-        <v>27</v>
-      </c>
-      <c r="H105" t="s">
-        <v>364</v>
-      </c>
-      <c r="I105" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>2.2455127239227295</v>
-      </c>
-      <c r="B106" t="s">
-        <v>365</v>
-      </c>
-      <c r="C106" t="s">
-        <v>366</v>
-      </c>
-      <c r="D106" t="s">
-        <v>27</v>
-      </c>
-      <c r="E106" t="s">
-        <v>28</v>
-      </c>
-      <c r="F106" t="s">
-        <v>29</v>
-      </c>
-      <c r="G106" t="s">
-        <v>27</v>
-      </c>
-      <c r="H106" t="s">
-        <v>367</v>
-      </c>
-      <c r="I106" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>2.2455127239227295</v>
-      </c>
-      <c r="B107" t="s">
-        <v>368</v>
-      </c>
-      <c r="C107" t="s">
-        <v>369</v>
-      </c>
-      <c r="D107" t="s">
-        <v>27</v>
-      </c>
-      <c r="E107" t="s">
-        <v>28</v>
-      </c>
-      <c r="F107" t="s">
-        <v>29</v>
-      </c>
-      <c r="G107" t="s">
-        <v>27</v>
-      </c>
-      <c r="H107" t="s">
-        <v>370</v>
-      </c>
-      <c r="I107" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>2.2455127239227295</v>
-      </c>
-      <c r="B108" t="s">
-        <v>371</v>
-      </c>
-      <c r="C108" t="s">
-        <v>372</v>
-      </c>
-      <c r="D108" t="s">
-        <v>27</v>
-      </c>
-      <c r="E108" t="s">
-        <v>28</v>
-      </c>
-      <c r="F108" t="s">
-        <v>29</v>
-      </c>
-      <c r="G108" t="s">
-        <v>27</v>
-      </c>
-      <c r="H108" t="s">
-        <v>373</v>
-      </c>
-      <c r="I108" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>2.2455127239227295</v>
-      </c>
-      <c r="B109" t="s">
-        <v>374</v>
-      </c>
-      <c r="C109" t="s">
-        <v>375</v>
-      </c>
-      <c r="D109" t="s">
-        <v>27</v>
-      </c>
-      <c r="E109" t="s">
-        <v>28</v>
-      </c>
-      <c r="F109" t="s">
-        <v>29</v>
-      </c>
-      <c r="G109" t="s">
-        <v>27</v>
-      </c>
-      <c r="H109" t="s">
-        <v>376</v>
-      </c>
-      <c r="I109" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>2.2455127239227295</v>
-      </c>
-      <c r="B110" t="s">
-        <v>377</v>
-      </c>
-      <c r="C110" t="s">
-        <v>378</v>
-      </c>
-      <c r="D110" t="s">
-        <v>27</v>
-      </c>
-      <c r="E110" t="s">
-        <v>28</v>
-      </c>
-      <c r="F110" t="s">
-        <v>29</v>
-      </c>
-      <c r="G110" t="s">
-        <v>27</v>
-      </c>
-      <c r="H110" t="s">
-        <v>379</v>
-      </c>
-      <c r="I110" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>2.2455127239227295</v>
-      </c>
-      <c r="B111" t="s">
-        <v>380</v>
-      </c>
-      <c r="C111" t="s">
-        <v>381</v>
-      </c>
-      <c r="D111" t="s">
-        <v>27</v>
-      </c>
-      <c r="E111" t="s">
-        <v>28</v>
-      </c>
-      <c r="F111" t="s">
-        <v>29</v>
-      </c>
-      <c r="G111" t="s">
-        <v>27</v>
-      </c>
-      <c r="H111" t="s">
-        <v>382</v>
-      </c>
-      <c r="I111" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>2.2455127239227295</v>
-      </c>
-      <c r="B112" t="s">
-        <v>383</v>
-      </c>
-      <c r="C112" t="s">
-        <v>384</v>
-      </c>
-      <c r="D112" t="s">
-        <v>27</v>
-      </c>
-      <c r="E112" t="s">
-        <v>28</v>
-      </c>
-      <c r="F112" t="s">
-        <v>29</v>
-      </c>
-      <c r="G112" t="s">
-        <v>27</v>
-      </c>
-      <c r="H112" t="s">
-        <v>385</v>
-      </c>
-      <c r="I112" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>2.2455127239227295</v>
-      </c>
-      <c r="B113" t="s">
-        <v>386</v>
-      </c>
-      <c r="C113" t="s">
-        <v>387</v>
-      </c>
-      <c r="D113" t="s">
-        <v>27</v>
-      </c>
-      <c r="E113" t="s">
-        <v>28</v>
-      </c>
-      <c r="F113" t="s">
-        <v>29</v>
-      </c>
-      <c r="G113" t="s">
-        <v>27</v>
-      </c>
-      <c r="H113" t="s">
-        <v>388</v>
-      </c>
-      <c r="I113" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>2.2455127239227295</v>
-      </c>
-      <c r="B114" t="s">
-        <v>389</v>
-      </c>
-      <c r="C114" t="s">
-        <v>390</v>
-      </c>
-      <c r="D114" t="s">
-        <v>27</v>
-      </c>
-      <c r="E114" t="s">
-        <v>28</v>
-      </c>
-      <c r="F114" t="s">
-        <v>29</v>
-      </c>
-      <c r="G114" t="s">
-        <v>27</v>
-      </c>
-      <c r="H114" t="s">
-        <v>391</v>
-      </c>
-      <c r="I114" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>2.2455127239227295</v>
-      </c>
-      <c r="B115" t="s">
-        <v>392</v>
-      </c>
-      <c r="C115" t="s">
-        <v>393</v>
-      </c>
-      <c r="D115" t="s">
-        <v>27</v>
-      </c>
-      <c r="E115" t="s">
-        <v>28</v>
-      </c>
-      <c r="F115" t="s">
-        <v>29</v>
-      </c>
-      <c r="G115" t="s">
-        <v>27</v>
-      </c>
-      <c r="H115" t="s">
-        <v>394</v>
-      </c>
-      <c r="I115" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>2.2455127239227295</v>
-      </c>
-      <c r="B116" t="s">
-        <v>395</v>
-      </c>
-      <c r="C116" t="s">
-        <v>396</v>
-      </c>
-      <c r="D116" t="s">
-        <v>27</v>
-      </c>
-      <c r="E116" t="s">
-        <v>28</v>
-      </c>
-      <c r="F116" t="s">
-        <v>29</v>
-      </c>
-      <c r="G116" t="s">
-        <v>27</v>
-      </c>
-      <c r="H116" t="s">
-        <v>397</v>
-      </c>
-      <c r="I116" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5313,16 +3775,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.559927463531494</v>
+        <v>7.4413557052612305</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>399</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -5334,24 +3796,24 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>401</v>
+        <v>281</v>
       </c>
       <c r="I2" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.523053169250488</v>
+        <v>7.40447998046875</v>
       </c>
       <c r="B3" t="s">
-        <v>402</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
       <c r="D3" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -5363,24 +3825,24 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>404</v>
+        <v>284</v>
       </c>
       <c r="I3" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.086878299713135</v>
+        <v>6.968245029449463</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
-        <v>406</v>
+        <v>286</v>
       </c>
       <c r="D4" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -5392,24 +3854,24 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="I4" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.5646185874938965</v>
+        <v>6.446210861206055</v>
       </c>
       <c r="B5" t="s">
-        <v>408</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
-        <v>409</v>
+        <v>289</v>
       </c>
       <c r="D5" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -5421,24 +3883,24 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="I5" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.464572906494141</v>
+        <v>6.345404148101807</v>
       </c>
       <c r="B6" t="s">
-        <v>411</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>412</v>
+        <v>292</v>
       </c>
       <c r="D6" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -5450,24 +3912,24 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>413</v>
+        <v>293</v>
       </c>
       <c r="I6" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.376360893249512</v>
+        <v>6.2579851150512695</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>295</v>
       </c>
       <c r="C7" t="s">
-        <v>416</v>
+        <v>296</v>
       </c>
       <c r="D7" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -5479,24 +3941,24 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>417</v>
+        <v>297</v>
       </c>
       <c r="I7" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.341448783874512</v>
+        <v>6.22488260269165</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
-        <v>419</v>
+        <v>299</v>
       </c>
       <c r="D8" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -5508,24 +3970,24 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>421</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.083920955657959</v>
+        <v>5.965513229370117</v>
       </c>
       <c r="B9" t="s">
-        <v>422</v>
+        <v>302</v>
       </c>
       <c r="C9" t="s">
-        <v>423</v>
+        <v>303</v>
       </c>
       <c r="D9" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -5537,24 +3999,24 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>424</v>
+        <v>304</v>
       </c>
       <c r="I9" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.912685394287109</v>
+        <v>5.794277667999268</v>
       </c>
       <c r="B10" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="C10" t="s">
-        <v>426</v>
+        <v>306</v>
       </c>
       <c r="D10" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -5566,24 +4028,24 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>427</v>
+        <v>307</v>
       </c>
       <c r="I10" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.661653518676758</v>
+        <v>5.543745517730713</v>
       </c>
       <c r="B11" t="s">
-        <v>428</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
-        <v>429</v>
+        <v>309</v>
       </c>
       <c r="D11" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -5595,10 +4057,10 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="I11" t="s">
-        <v>431</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5693,16 +4155,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.943526268005371</v>
+        <v>5.732086658477783</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>434</v>
+        <v>314</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -5714,68 +4176,10 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>435</v>
+        <v>315</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5.849306583404541</v>
-      </c>
-      <c r="B3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D3" t="s">
-        <v>434</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>438</v>
-      </c>
-      <c r="I3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5.7067108154296875</v>
-      </c>
-      <c r="B4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D4" t="s">
-        <v>434</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>441</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5870,16 +4274,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.633685111999512</v>
+        <v>6.515276908874512</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>316</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>317</v>
       </c>
       <c r="D2" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -5891,24 +4295,24 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>445</v>
+        <v>319</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.4669270515441895</v>
+        <v>6.348545074462891</v>
       </c>
       <c r="B3" t="s">
-        <v>446</v>
+        <v>320</v>
       </c>
       <c r="C3" t="s">
-        <v>447</v>
+        <v>321</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -5920,24 +4324,24 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>448</v>
+        <v>322</v>
       </c>
       <c r="I3" t="s">
-        <v>449</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.337671756744385</v>
+        <v>6.222518444061279</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>324</v>
       </c>
       <c r="C4" t="s">
-        <v>451</v>
+        <v>325</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -5949,24 +4353,24 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>452</v>
+        <v>326</v>
       </c>
       <c r="I4" t="s">
-        <v>453</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.302417755126953</v>
+        <v>6.184009552001953</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>328</v>
       </c>
       <c r="C5" t="s">
-        <v>455</v>
+        <v>329</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -5978,7 +4382,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>456</v>
+        <v>330</v>
       </c>
       <c r="I5" t="s">
         <v>39</v>
@@ -5986,16 +4390,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.239257335662842</v>
+        <v>6.130220413208008</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>331</v>
       </c>
       <c r="C6" t="s">
-        <v>458</v>
+        <v>332</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -6007,24 +4411,24 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>459</v>
+        <v>333</v>
       </c>
       <c r="I6" t="s">
-        <v>449</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.164852142333984</v>
+        <v>6.05045223236084</v>
       </c>
       <c r="B7" t="s">
-        <v>460</v>
+        <v>334</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>335</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -6036,24 +4440,24 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>462</v>
+        <v>336</v>
       </c>
       <c r="I7" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.993467807769775</v>
+        <v>5.878384113311768</v>
       </c>
       <c r="B8" t="s">
-        <v>463</v>
+        <v>337</v>
       </c>
       <c r="C8" t="s">
-        <v>464</v>
+        <v>338</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -6065,24 +4469,24 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>465</v>
+        <v>339</v>
       </c>
       <c r="I8" t="s">
-        <v>449</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.975486755371094</v>
+        <v>5.857079029083252</v>
       </c>
       <c r="B9" t="s">
-        <v>466</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
-        <v>467</v>
+        <v>341</v>
       </c>
       <c r="D9" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -6094,24 +4498,24 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>468</v>
+        <v>342</v>
       </c>
       <c r="I9" t="s">
-        <v>453</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.914177894592285</v>
+        <v>5.797906875610352</v>
       </c>
       <c r="B10" t="s">
-        <v>469</v>
+        <v>343</v>
       </c>
       <c r="C10" t="s">
-        <v>470</v>
+        <v>344</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -6123,24 +4527,24 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>471</v>
+        <v>345</v>
       </c>
       <c r="I10" t="s">
-        <v>453</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.774172306060791</v>
+        <v>5.678920745849609</v>
       </c>
       <c r="B11" t="s">
-        <v>472</v>
+        <v>346</v>
       </c>
       <c r="C11" t="s">
-        <v>473</v>
+        <v>347</v>
       </c>
       <c r="D11" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -6152,24 +4556,30 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>474</v>
+        <v>348</v>
       </c>
       <c r="I11" t="s">
-        <v>414</v>
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>349</v>
+      </c>
+      <c r="K11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.527227401733398</v>
+        <v>5.656791687011719</v>
       </c>
       <c r="B12" t="s">
-        <v>475</v>
+        <v>350</v>
       </c>
       <c r="C12" t="s">
-        <v>476</v>
+        <v>351</v>
       </c>
       <c r="D12" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
@@ -6181,24 +4591,24 @@
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>477</v>
+        <v>352</v>
       </c>
       <c r="I12" t="s">
-        <v>449</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.50606107711792</v>
+        <v>5.408819675445557</v>
       </c>
       <c r="B13" t="s">
-        <v>478</v>
+        <v>353</v>
       </c>
       <c r="C13" t="s">
-        <v>479</v>
+        <v>354</v>
       </c>
       <c r="D13" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -6210,30 +4620,24 @@
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>480</v>
+        <v>355</v>
       </c>
       <c r="I13" t="s">
-        <v>453</v>
-      </c>
-      <c r="J13" t="s">
-        <v>481</v>
-      </c>
-      <c r="K13" t="s">
-        <v>449</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.479523658752441</v>
+        <v>5.387653350830078</v>
       </c>
       <c r="B14" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="C14" t="s">
-        <v>483</v>
+        <v>357</v>
       </c>
       <c r="D14" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -6245,30 +4649,30 @@
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>327</v>
       </c>
       <c r="J14" t="s">
-        <v>485</v>
+        <v>359</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.435564041137695</v>
+        <v>5.322727680206299</v>
       </c>
       <c r="B15" t="s">
-        <v>486</v>
+        <v>360</v>
       </c>
       <c r="C15" t="s">
-        <v>487</v>
+        <v>361</v>
       </c>
       <c r="D15" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
@@ -6280,24 +4684,24 @@
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>488</v>
+        <v>362</v>
       </c>
       <c r="I15" t="s">
-        <v>453</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.354753494262695</v>
+        <v>5.2363457679748535</v>
       </c>
       <c r="B16" t="s">
-        <v>489</v>
+        <v>363</v>
       </c>
       <c r="C16" t="s">
-        <v>490</v>
+        <v>364</v>
       </c>
       <c r="D16" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
@@ -6309,24 +4713,24 @@
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>491</v>
+        <v>365</v>
       </c>
       <c r="I16" t="s">
-        <v>449</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.15720272064209</v>
+        <v>5.038794994354248</v>
       </c>
       <c r="B17" t="s">
-        <v>492</v>
+        <v>366</v>
       </c>
       <c r="C17" t="s">
-        <v>493</v>
+        <v>367</v>
       </c>
       <c r="D17" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -6338,24 +4742,24 @@
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>494</v>
+        <v>368</v>
       </c>
       <c r="I17" t="s">
-        <v>495</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.0881218910217285</v>
+        <v>4.969714164733887</v>
       </c>
       <c r="B18" t="s">
-        <v>496</v>
+        <v>370</v>
       </c>
       <c r="C18" t="s">
-        <v>497</v>
+        <v>371</v>
       </c>
       <c r="D18" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
@@ -6367,24 +4771,24 @@
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>498</v>
+        <v>372</v>
       </c>
       <c r="I18" t="s">
-        <v>499</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.068986892700195</v>
+        <v>4.9505791664123535</v>
       </c>
       <c r="B19" t="s">
-        <v>500</v>
+        <v>374</v>
       </c>
       <c r="C19" t="s">
-        <v>501</v>
+        <v>375</v>
       </c>
       <c r="D19" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
@@ -6396,24 +4800,24 @@
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>502</v>
+        <v>376</v>
       </c>
       <c r="I19" t="s">
-        <v>503</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.005935192108154</v>
+        <v>4.8875274658203125</v>
       </c>
       <c r="B20" t="s">
-        <v>504</v>
+        <v>378</v>
       </c>
       <c r="C20" t="s">
-        <v>505</v>
+        <v>379</v>
       </c>
       <c r="D20" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -6425,24 +4829,24 @@
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>506</v>
+        <v>380</v>
       </c>
       <c r="I20" t="s">
-        <v>449</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.971424102783203</v>
+        <v>4.853016376495361</v>
       </c>
       <c r="B21" t="s">
-        <v>507</v>
+        <v>381</v>
       </c>
       <c r="C21" t="s">
-        <v>508</v>
+        <v>382</v>
       </c>
       <c r="D21" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -6454,24 +4858,24 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>509</v>
+        <v>383</v>
       </c>
       <c r="I21" t="s">
-        <v>449</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.894847393035889</v>
+        <v>4.776439666748047</v>
       </c>
       <c r="B22" t="s">
-        <v>510</v>
+        <v>384</v>
       </c>
       <c r="C22" t="s">
-        <v>511</v>
+        <v>385</v>
       </c>
       <c r="D22" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
@@ -6483,24 +4887,24 @@
         <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>512</v>
+        <v>386</v>
       </c>
       <c r="I22" t="s">
-        <v>453</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.810178756713867</v>
+        <v>4.691771030426025</v>
       </c>
       <c r="B23" t="s">
-        <v>513</v>
+        <v>387</v>
       </c>
       <c r="C23" t="s">
-        <v>514</v>
+        <v>388</v>
       </c>
       <c r="D23" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
@@ -6512,24 +4916,24 @@
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>515</v>
+        <v>389</v>
       </c>
       <c r="I23" t="s">
-        <v>453</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.799395561218262</v>
+        <v>4.68098783493042</v>
       </c>
       <c r="B24" t="s">
-        <v>516</v>
+        <v>390</v>
       </c>
       <c r="C24" t="s">
-        <v>517</v>
+        <v>391</v>
       </c>
       <c r="D24" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
@@ -6541,30 +4945,30 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>518</v>
+        <v>392</v>
       </c>
       <c r="I24" t="s">
-        <v>453</v>
+        <v>327</v>
       </c>
       <c r="J24" t="s">
-        <v>519</v>
+        <v>393</v>
       </c>
       <c r="K24" t="s">
-        <v>431</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.491025447845459</v>
+        <v>4.372617244720459</v>
       </c>
       <c r="B25" t="s">
-        <v>520</v>
+        <v>394</v>
       </c>
       <c r="C25" t="s">
-        <v>521</v>
+        <v>395</v>
       </c>
       <c r="D25" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
@@ -6576,30 +4980,30 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>522</v>
+        <v>396</v>
       </c>
       <c r="I25" t="s">
-        <v>453</v>
+        <v>323</v>
       </c>
       <c r="J25" t="s">
-        <v>523</v>
+        <v>397</v>
       </c>
       <c r="K25" t="s">
-        <v>449</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.338934421539307</v>
+        <v>4.220526695251465</v>
       </c>
       <c r="B26" t="s">
-        <v>524</v>
+        <v>398</v>
       </c>
       <c r="C26" t="s">
-        <v>525</v>
+        <v>399</v>
       </c>
       <c r="D26" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
@@ -6611,30 +5015,30 @@
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>526</v>
+        <v>400</v>
       </c>
       <c r="I26" t="s">
-        <v>431</v>
+        <v>323</v>
       </c>
       <c r="J26" t="s">
-        <v>527</v>
+        <v>401</v>
       </c>
       <c r="K26" t="s">
-        <v>449</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.227783679962158</v>
+        <v>4.109375953674316</v>
       </c>
       <c r="B27" t="s">
-        <v>528</v>
+        <v>402</v>
       </c>
       <c r="C27" t="s">
-        <v>529</v>
+        <v>403</v>
       </c>
       <c r="D27" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
@@ -6646,24 +5050,24 @@
         <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>530</v>
+        <v>404</v>
       </c>
       <c r="I27" t="s">
-        <v>449</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.051692485809326</v>
+        <v>3.9332847595214844</v>
       </c>
       <c r="B28" t="s">
-        <v>531</v>
+        <v>405</v>
       </c>
       <c r="C28" t="s">
-        <v>532</v>
+        <v>406</v>
       </c>
       <c r="D28" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E28" t="s">
         <v>28</v>
@@ -6675,7 +5079,7 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>533</v>
+        <v>407</v>
       </c>
       <c r="I28" t="s">
         <v>39</v>
@@ -6683,16 +5087,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.9937007427215576</v>
+        <v>3.8752927780151367</v>
       </c>
       <c r="B29" t="s">
-        <v>534</v>
+        <v>408</v>
       </c>
       <c r="C29" t="s">
-        <v>535</v>
+        <v>409</v>
       </c>
       <c r="D29" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="E29" t="s">
         <v>28</v>
@@ -6704,10 +5108,10 @@
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>536</v>
+        <v>410</v>
       </c>
       <c r="I29" t="s">
-        <v>453</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -6802,16 +5206,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.637717247009277</v>
+        <v>6.519309043884277</v>
       </c>
       <c r="B2" t="s">
-        <v>537</v>
+        <v>411</v>
       </c>
       <c r="C2" t="s">
-        <v>538</v>
+        <v>412</v>
       </c>
       <c r="D2" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -6823,24 +5227,24 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>540</v>
+        <v>414</v>
       </c>
       <c r="I2" t="s">
-        <v>431</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.633347034454346</v>
+        <v>6.514939308166504</v>
       </c>
       <c r="B3" t="s">
-        <v>541</v>
+        <v>415</v>
       </c>
       <c r="C3" t="s">
-        <v>542</v>
+        <v>416</v>
       </c>
       <c r="D3" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -6852,24 +5256,24 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>543</v>
+        <v>417</v>
       </c>
       <c r="I3" t="s">
-        <v>431</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.614319801330566</v>
+        <v>6.507750034332275</v>
       </c>
       <c r="B4" t="s">
-        <v>544</v>
+        <v>418</v>
       </c>
       <c r="C4" t="s">
-        <v>545</v>
+        <v>419</v>
       </c>
       <c r="D4" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -6881,24 +5285,24 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>546</v>
+        <v>420</v>
       </c>
       <c r="I4" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.551594257354736</v>
+        <v>6.434065818786621</v>
       </c>
       <c r="B5" t="s">
-        <v>547</v>
+        <v>421</v>
       </c>
       <c r="C5" t="s">
-        <v>548</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -6910,36 +5314,36 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>549</v>
+        <v>423</v>
       </c>
       <c r="I5" t="s">
-        <v>431</v>
+        <v>311</v>
       </c>
       <c r="J5" t="s">
-        <v>550</v>
+        <v>424</v>
       </c>
       <c r="K5" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="L5" t="s">
-        <v>551</v>
+        <v>425</v>
       </c>
       <c r="M5" t="s">
-        <v>503</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.874820232391357</v>
+        <v>5.756412506103516</v>
       </c>
       <c r="B6" t="s">
-        <v>552</v>
+        <v>426</v>
       </c>
       <c r="C6" t="s">
-        <v>553</v>
+        <v>427</v>
       </c>
       <c r="D6" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -6951,24 +5355,24 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>554</v>
+        <v>428</v>
       </c>
       <c r="I6" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.432751178741455</v>
+        <v>5.314343452453613</v>
       </c>
       <c r="B7" t="s">
-        <v>555</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>556</v>
+        <v>430</v>
       </c>
       <c r="D7" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -6980,24 +5384,24 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>557</v>
+        <v>431</v>
       </c>
       <c r="I7" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.099818706512451</v>
+        <v>4.981410980224609</v>
       </c>
       <c r="B8" t="s">
-        <v>558</v>
+        <v>432</v>
       </c>
       <c r="C8" t="s">
-        <v>559</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -7009,10 +5413,10 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>560</v>
+        <v>434</v>
       </c>
       <c r="I8" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
